--- a/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
+++ b/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB7D8F7-9B13-4892-BBA5-537720A65DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF61B1-6EDB-4469-B83E-E388C384E639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ECCD4C8-C771-47CF-A0B8-AE69250E15F6}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>creationDate</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>Auto_GSD-120</t>
   </si>
   <si>
-    <t>Auto_GSD-120</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,13 +445,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
+++ b/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF17ED-B1C8-4695-8D19-1B5EDF1E41B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA392B96-95E0-4B65-9F62-845E8B0BB412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ECCD4C8-C771-47CF-A0B8-AE69250E15F6}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="12915" windowHeight="12615" xr2:uid="{8ECCD4C8-C771-47CF-A0B8-AE69250E15F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Auto_GSD-120</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
+++ b/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA392B96-95E0-4B65-9F62-845E8B0BB412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC0E136-9781-45A4-936C-14973D58FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="12915" windowHeight="12615" xr2:uid="{8ECCD4C8-C771-47CF-A0B8-AE69250E15F6}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12915" windowHeight="12660" xr2:uid="{8ECCD4C8-C771-47CF-A0B8-AE69250E15F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Auto_GSD-120</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
+++ b/Data Files/Fix Bug/GSD-120/Auto_GSD-120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC0E136-9781-45A4-936C-14973D58FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7C52A7-1C3C-47D1-AE74-EA13443C7E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12915" windowHeight="12660" xr2:uid="{8ECCD4C8-C771-47CF-A0B8-AE69250E15F6}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="7305" windowHeight="13260" xr2:uid="{8ECCD4C8-C771-47CF-A0B8-AE69250E15F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Auto_GSD-120</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D8C0D4-E47B-43A3-982A-6CE4F0D9029A}">
   <dimension ref="A1:C303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
